--- a/過去分/Denodo接続.xlsx
+++ b/過去分/Denodo接続.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyok\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyok\OneDrive\デスクトップ\gitWindows\WindowsVBA\過去分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB4A2BF-B5C1-4451-89E7-60706FEDAA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2E88C-4182-4F61-9A12-B9BD5033804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBCA0490-3655-47CA-93A0-CDD59FBAD105}"/>
+    <workbookView xWindow="4152" yWindow="504" windowWidth="17280" windowHeight="8832" xr2:uid="{DBCA0490-3655-47CA-93A0-CDD59FBAD105}"/>
   </bookViews>
   <sheets>
     <sheet name="A5で接続" sheetId="1" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD196BB-072F-4598-BC2E-D0E829471730}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
